--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -48983,7 +48983,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49055,8 +49055,7 @@
         <v>1001</v>
       </c>
       <c r="E2" s="1" t="n">
-        <f aca="false">Sheet1!E2*Sheet4!E2</f>
-        <v>2415.3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">Sheet1!F2*Sheet4!F2</f>
@@ -49100,11 +49099,11 @@
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">SUM(D2:O2)</f>
-        <v>23868.1014668367</v>
+        <v>21453.8014668367</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">SUMPRODUCT(D2:O2,$D$38:$O$38)</f>
-        <v>4490.65751122755</v>
+        <v>4275.97165170638</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49119,8 +49118,7 @@
         <v>1002</v>
       </c>
       <c r="E3" s="1" t="n">
-        <f aca="false">Sheet1!E3*Sheet4!E3</f>
-        <v>2311.83673469388</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">Sheet1!F3*Sheet4!F3</f>
@@ -49164,11 +49162,11 @@
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">SUM(D3:O3)</f>
-        <v>22690.3177295918</v>
+        <v>20380.480994898</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">SUMPRODUCT(D3:O3,$D$38:$O$38)</f>
-        <v>4179.26707035289</v>
+        <v>3974.25126723802</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49183,8 +49181,7 @@
         <v>1003</v>
       </c>
       <c r="E4" s="1" t="n">
-        <f aca="false">Sheet1!E4*Sheet4!E4</f>
-        <v>2617.26326530612</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">Sheet1!F4*Sheet4!F4</f>
@@ -49228,11 +49225,11 @@
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">SUM(D4:O4)</f>
-        <v>23174.1463647959</v>
+        <v>20559.8830994898</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">SUMPRODUCT(D4:O4,$D$38:$O$38)</f>
-        <v>4261.56416991856</v>
+        <v>4029.79703897739</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49247,8 +49244,7 @@
         <v>1004</v>
       </c>
       <c r="E5" s="1" t="n">
-        <f aca="false">Sheet1!E5*Sheet4!E5</f>
-        <v>2575.5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">Sheet1!F5*Sheet4!F5</f>
@@ -49292,11 +49288,11 @@
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">SUM(D5:O5)</f>
-        <v>24608.4747767857</v>
+        <v>22036.9747767857</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">SUMPRODUCT(D5:O5,$D$38:$O$38)</f>
-        <v>4469.36333766648</v>
+        <v>4241.77040720763</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49311,8 +49307,7 @@
         <v>1005</v>
       </c>
       <c r="E6" s="1" t="n">
-        <f aca="false">Sheet1!E6*Sheet4!E6</f>
-        <v>2736.74285714286</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">Sheet1!F6*Sheet4!F6</f>
@@ -49356,11 +49351,11 @@
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">SUM(D6:O6)</f>
-        <v>24431.1665497449</v>
+        <v>21699.423692602</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">SUMPRODUCT(D6:O6,$D$38:$O$38)</f>
-        <v>4665.65395712339</v>
+        <v>4424.15269229007</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49375,8 +49370,7 @@
         <v>1006</v>
       </c>
       <c r="E7" s="1" t="n">
-        <f aca="false">Sheet1!E7*Sheet4!E7</f>
-        <v>2217.65306122449</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">Sheet1!F7*Sheet4!F7</f>
@@ -49420,11 +49414,11 @@
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">SUM(D7:O7)</f>
-        <v>23128.144005102</v>
+        <v>20916.4909438776</v>
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">SUMPRODUCT(D7:O7,$D$38:$O$38)</f>
-        <v>4345.92759252511</v>
+        <v>4151.11783515849</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49439,8 +49433,7 @@
         <v>1007</v>
       </c>
       <c r="E8" s="1" t="n">
-        <f aca="false">Sheet1!E8*Sheet4!E8</f>
-        <v>2818.61224489796</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">Sheet1!F8*Sheet4!F8</f>
@@ -49484,11 +49477,11 @@
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">SUM(D8:O8)</f>
-        <v>25323.9316326531</v>
+        <v>22512.3193877551</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">SUMPRODUCT(D8:O8,$D$38:$O$38)</f>
-        <v>4778.53983145731</v>
+        <v>4530.65451803012</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49503,8 +49496,7 @@
         <v>1008</v>
       </c>
       <c r="E9" s="1" t="n">
-        <f aca="false">Sheet1!E9*Sheet4!E9</f>
-        <v>2434.43673469388</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">Sheet1!F9*Sheet4!F9</f>
@@ -49548,11 +49540,11 @@
       </c>
       <c r="Q9" s="1" t="n">
         <f aca="false">SUM(D9:O9)</f>
-        <v>24151.8882653061</v>
+        <v>21725.4515306123</v>
       </c>
       <c r="R9" s="1" t="n">
         <f aca="false">SUMPRODUCT(D9:O9,$D$38:$O$38)</f>
-        <v>4589.91983123556</v>
+        <v>4376.70869178443</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49567,8 +49559,7 @@
         <v>1009</v>
       </c>
       <c r="E10" s="1" t="n">
-        <f aca="false">Sheet1!E10*Sheet4!E10</f>
-        <v>2733.45306122449</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">Sheet1!F10*Sheet4!F10</f>
@@ -49612,11 +49603,11 @@
       </c>
       <c r="Q10" s="1" t="n">
         <f aca="false">SUM(D10:O10)</f>
-        <v>24041.1882653061</v>
+        <v>21316.7352040816</v>
       </c>
       <c r="R10" s="1" t="n">
         <f aca="false">SUMPRODUCT(D10:O10,$D$38:$O$38)</f>
-        <v>4587.91900218232</v>
+        <v>4348.52751639722</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49631,8 +49622,7 @@
         <v>1010</v>
       </c>
       <c r="E11" s="1" t="n">
-        <f aca="false">Sheet1!E11*Sheet4!E11</f>
-        <v>2593.66530612245</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">Sheet1!F11*Sheet4!F11</f>
@@ -49676,11 +49666,11 @@
       </c>
       <c r="Q11" s="1" t="n">
         <f aca="false">SUM(D11:O11)</f>
-        <v>25014.8395089286</v>
+        <v>22431.1742028061</v>
       </c>
       <c r="R11" s="1" t="n">
         <f aca="false">SUMPRODUCT(D11:O11,$D$38:$O$38)</f>
-        <v>4738.09806054181</v>
+        <v>4511.6121929528</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49695,8 +49685,7 @@
         <v>1011</v>
       </c>
       <c r="E12" s="1" t="n">
-        <f aca="false">Sheet1!E12*Sheet4!E12</f>
-        <v>2593.37142857143</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">Sheet1!F12*Sheet4!F12</f>
@@ -49740,11 +49729,11 @@
       </c>
       <c r="Q12" s="1" t="n">
         <f aca="false">SUM(D12:O12)</f>
-        <v>24166.0674744898</v>
+        <v>21583.6960459184</v>
       </c>
       <c r="R12" s="1" t="n">
         <f aca="false">SUMPRODUCT(D12:O12,$D$38:$O$38)</f>
-        <v>4635.38175356732</v>
+        <v>4409.37624885355</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49759,8 +49748,7 @@
         <v>1012</v>
       </c>
       <c r="E13" s="1" t="n">
-        <f aca="false">Sheet1!E13*Sheet4!E13</f>
-        <v>2480.48571428571</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">Sheet1!F13*Sheet4!F13</f>
@@ -49804,11 +49792,11 @@
       </c>
       <c r="Q13" s="1" t="n">
         <f aca="false">SUM(D13:O13)</f>
-        <v>23356.6543367347</v>
+        <v>20888.168622449</v>
       </c>
       <c r="R13" s="1" t="n">
         <f aca="false">SUMPRODUCT(D13:O13,$D$38:$O$38)</f>
-        <v>4246.49676279452</v>
+        <v>4031.00060819925</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49823,8 +49811,7 @@
         <v>1013</v>
       </c>
       <c r="E14" s="1" t="n">
-        <f aca="false">Sheet1!E14*Sheet4!E14</f>
-        <v>2141.26530612245</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">Sheet1!F14*Sheet4!F14</f>
@@ -49868,11 +49855,11 @@
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">SUM(D14:O14)</f>
-        <v>21227.2755102041</v>
+        <v>19099.0102040816</v>
       </c>
       <c r="R14" s="1" t="n">
         <f aca="false">SUMPRODUCT(D14:O14,$D$38:$O$38)</f>
-        <v>3981.00719793479</v>
+        <v>3796.18089375215</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49887,8 +49874,7 @@
         <v>1014</v>
       </c>
       <c r="E15" s="1" t="n">
-        <f aca="false">Sheet1!E15*Sheet4!E15</f>
-        <v>2244.6</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">Sheet1!F15*Sheet4!F15</f>
@@ -49932,11 +49918,11 @@
       </c>
       <c r="Q15" s="1" t="n">
         <f aca="false">SUM(D15:O15)</f>
-        <v>20811.6511479592</v>
+        <v>18581.0511479592</v>
       </c>
       <c r="R15" s="1" t="n">
         <f aca="false">SUMPRODUCT(D15:O15,$D$38:$O$38)</f>
-        <v>3729.14291810402</v>
+        <v>3535.56638201252</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49951,8 +49937,7 @@
         <v>1015</v>
       </c>
       <c r="E16" s="1" t="n">
-        <f aca="false">Sheet1!E16*Sheet4!E16</f>
-        <v>2444.15918367347</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">Sheet1!F16*Sheet4!F16</f>
@@ -49996,11 +49981,11 @@
       </c>
       <c r="Q16" s="1" t="n">
         <f aca="false">SUM(D16:O16)</f>
-        <v>23124.294005102</v>
+        <v>20695.1348214286</v>
       </c>
       <c r="R16" s="1" t="n">
         <f aca="false">SUMPRODUCT(D16:O16,$D$38:$O$38)</f>
-        <v>4474.95368198703</v>
+        <v>4264.05582918477</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50015,8 +50000,7 @@
         <v>1016</v>
       </c>
       <c r="E17" s="1" t="n">
-        <f aca="false">Sheet1!E17*Sheet4!E17</f>
-        <v>2225.2306122449</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">Sheet1!F17*Sheet4!F17</f>
@@ -50060,11 +50044,11 @@
       </c>
       <c r="Q17" s="1" t="n">
         <f aca="false">SUM(D17:O17)</f>
-        <v>23133.0728316327</v>
+        <v>20923.8422193878</v>
       </c>
       <c r="R17" s="1" t="n">
         <f aca="false">SUMPRODUCT(D17:O17,$D$38:$O$38)</f>
-        <v>4425.32150518546</v>
+        <v>4234.37864698507</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50079,8 +50063,7 @@
         <v>1017</v>
       </c>
       <c r="E18" s="1" t="n">
-        <f aca="false">Sheet1!E18*Sheet4!E18</f>
-        <v>2366.97142857143</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">Sheet1!F18*Sheet4!F18</f>
@@ -50124,11 +50107,11 @@
       </c>
       <c r="Q18" s="1" t="n">
         <f aca="false">SUM(D18:O18)</f>
-        <v>22443.8070153061</v>
+        <v>20093.8355867347</v>
       </c>
       <c r="R18" s="1" t="n">
         <f aca="false">SUMPRODUCT(D18:O18,$D$38:$O$38)</f>
-        <v>4256.50260794385</v>
+        <v>4053.38853703107</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50143,8 +50126,7 @@
         <v>1018</v>
       </c>
       <c r="E19" s="1" t="n">
-        <f aca="false">Sheet1!E19*Sheet4!E19</f>
-        <v>2371.58775510204</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">Sheet1!F19*Sheet4!F19</f>
@@ -50188,11 +50170,11 @@
       </c>
       <c r="Q19" s="1" t="n">
         <f aca="false">SUM(D19:O19)</f>
-        <v>22423.9040816327</v>
+        <v>20070.3163265306</v>
       </c>
       <c r="R19" s="1" t="n">
         <f aca="false">SUMPRODUCT(D19:O19,$D$38:$O$38)</f>
-        <v>4165.80927502184</v>
+        <v>3962.73819625187</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50207,8 +50189,7 @@
         <v>1019</v>
       </c>
       <c r="E20" s="1" t="n">
-        <f aca="false">Sheet1!E20*Sheet4!E20</f>
-        <v>2271.34693877551</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">Sheet1!F20*Sheet4!F20</f>
@@ -50252,11 +50233,11 @@
       </c>
       <c r="Q20" s="1" t="n">
         <f aca="false">SUM(D20:O20)</f>
-        <v>21903.8790497449</v>
+        <v>19651.5321109694</v>
       </c>
       <c r="R20" s="1" t="n">
         <f aca="false">SUMPRODUCT(D20:O20,$D$38:$O$38)</f>
-        <v>4304.18718882277</v>
+        <v>4110.49913055449</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50271,8 +50252,7 @@
         <v>1020</v>
       </c>
       <c r="E21" s="1" t="n">
-        <f aca="false">Sheet1!E21*Sheet4!E21</f>
-        <v>2291.78775510204</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">Sheet1!F21*Sheet4!F21</f>
@@ -50316,11 +50296,11 @@
       </c>
       <c r="Q21" s="1" t="n">
         <f aca="false">SUM(D21:O21)</f>
-        <v>20952.1100765306</v>
+        <v>18680.3223214286</v>
       </c>
       <c r="R21" s="1" t="n">
         <f aca="false">SUMPRODUCT(D21:O21,$D$38:$O$38)</f>
-        <v>3803.43416283403</v>
+        <v>3608.37954863744</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50335,8 +50315,7 @@
         <v>1021</v>
       </c>
       <c r="E22" s="1" t="n">
-        <f aca="false">Sheet1!E22*Sheet4!E22</f>
-        <v>2300.1</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">Sheet1!F22*Sheet4!F22</f>
@@ -50380,11 +50359,11 @@
       </c>
       <c r="Q22" s="1" t="n">
         <f aca="false">SUM(D22:O22)</f>
-        <v>23020.0274234694</v>
+        <v>20740.9274234694</v>
       </c>
       <c r="R22" s="1" t="n">
         <f aca="false">SUMPRODUCT(D22:O22,$D$38:$O$38)</f>
-        <v>4304.73047100763</v>
+        <v>4109.38963931279</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50399,8 +50378,7 @@
         <v>1022</v>
       </c>
       <c r="E23" s="1" t="n">
-        <f aca="false">Sheet1!E23*Sheet4!E23</f>
-        <v>2326.89591836734</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">Sheet1!F23*Sheet4!F23</f>
@@ -50444,11 +50422,11 @@
       </c>
       <c r="Q23" s="1" t="n">
         <f aca="false">SUM(D23:O23)</f>
-        <v>23162.0906568878</v>
+        <v>20857.1947385204</v>
       </c>
       <c r="R23" s="1" t="n">
         <f aca="false">SUMPRODUCT(D23:O23,$D$38:$O$38)</f>
-        <v>4277.59999897017</v>
+        <v>4080.32653800506</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50463,8 +50441,7 @@
         <v>1023</v>
       </c>
       <c r="E24" s="1" t="n">
-        <f aca="false">Sheet1!E24*Sheet4!E24</f>
-        <v>2552.12244897959</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">Sheet1!F24*Sheet4!F24</f>
@@ -50508,11 +50485,11 @@
       </c>
       <c r="Q24" s="1" t="n">
         <f aca="false">SUM(D24:O24)</f>
-        <v>22185.5945153061</v>
+        <v>19656.4720663265</v>
       </c>
       <c r="R24" s="1" t="n">
         <f aca="false">SUMPRODUCT(D24:O24,$D$38:$O$38)</f>
-        <v>4097.64036091228</v>
+        <v>3880.75929408365</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50527,8 +50504,7 @@
         <v>1024</v>
       </c>
       <c r="E25" s="1" t="n">
-        <f aca="false">Sheet1!E25*Sheet4!E25</f>
-        <v>2612.24489795919</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">Sheet1!F25*Sheet4!F25</f>
@@ -50572,11 +50548,11 @@
       </c>
       <c r="Q25" s="1" t="n">
         <f aca="false">SUM(D25:O25)</f>
-        <v>23367.8253188776</v>
+        <v>20779.5804209184</v>
       </c>
       <c r="R25" s="1" t="n">
         <f aca="false">SUMPRODUCT(D25:O25,$D$38:$O$38)</f>
-        <v>4298.85490269965</v>
+        <v>4077.07268454741</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50591,8 +50567,7 @@
         <v>1025</v>
       </c>
       <c r="E26" s="1" t="n">
-        <f aca="false">Sheet1!E26*Sheet4!E26</f>
-        <v>2520.47346938775</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">Sheet1!F26*Sheet4!F26</f>
@@ -50636,11 +50611,11 @@
       </c>
       <c r="Q26" s="1" t="n">
         <f aca="false">SUM(D26:O26)</f>
-        <v>23741.5909119898</v>
+        <v>21246.117442602</v>
       </c>
       <c r="R26" s="1" t="n">
         <f aca="false">SUMPRODUCT(D26:O26,$D$38:$O$38)</f>
-        <v>4455.7243271243</v>
+        <v>4242.57072858452</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50655,8 +50630,7 @@
         <v>1026</v>
       </c>
       <c r="E27" s="1" t="n">
-        <f aca="false">Sheet1!E27*Sheet4!E27</f>
-        <v>2266.37551020408</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">Sheet1!F27*Sheet4!F27</f>
@@ -50700,11 +50674,11 @@
       </c>
       <c r="Q27" s="1" t="n">
         <f aca="false">SUM(D27:O27)</f>
-        <v>22630.7505102041</v>
+        <v>20390.375</v>
       </c>
       <c r="R27" s="1" t="n">
         <f aca="false">SUMPRODUCT(D27:O27,$D$38:$O$38)</f>
-        <v>4448.63970932152</v>
+        <v>4258.57377779911</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50719,8 +50693,7 @@
         <v>1027</v>
       </c>
       <c r="E28" s="1" t="n">
-        <f aca="false">Sheet1!E28*Sheet4!E28</f>
-        <v>2492.23673469388</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">Sheet1!F28*Sheet4!F28</f>
@@ -50764,11 +50737,11 @@
       </c>
       <c r="Q28" s="1" t="n">
         <f aca="false">SUM(D28:O28)</f>
-        <v>21508.8094387755</v>
+        <v>19043.5727040816</v>
       </c>
       <c r="R28" s="1" t="n">
         <f aca="false">SUMPRODUCT(D28:O28,$D$38:$O$38)</f>
-        <v>4060.34450299047</v>
+        <v>3850.61443098367</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50783,8 +50756,7 @@
         <v>1028</v>
       </c>
       <c r="E29" s="1" t="n">
-        <f aca="false">Sheet1!E29*Sheet4!E29</f>
-        <v>2498.44285714286</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">Sheet1!F29*Sheet4!F29</f>
@@ -50828,11 +50800,11 @@
       </c>
       <c r="Q29" s="1" t="n">
         <f aca="false">SUM(D29:O29)</f>
-        <v>23271.6060905612</v>
+        <v>20801.1632334184</v>
       </c>
       <c r="R29" s="1" t="n">
         <f aca="false">SUMPRODUCT(D29:O29,$D$38:$O$38)</f>
-        <v>4434.77557992104</v>
+        <v>4224.9468908299</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50847,8 +50819,7 @@
         <v>1029</v>
       </c>
       <c r="E30" s="1" t="n">
-        <f aca="false">Sheet1!E30*Sheet4!E30</f>
-        <v>2502.51632653061</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">Sheet1!F30*Sheet4!F30</f>
@@ -50892,11 +50863,11 @@
       </c>
       <c r="Q30" s="1" t="n">
         <f aca="false">SUM(D30:O30)</f>
-        <v>21679.986192602</v>
+        <v>19206.4698660714</v>
       </c>
       <c r="R30" s="1" t="n">
         <f aca="false">SUMPRODUCT(D30:O30,$D$38:$O$38)</f>
-        <v>3985.37575342821</v>
+        <v>3775.63841085014</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50911,8 +50882,7 @@
         <v>1030</v>
       </c>
       <c r="E31" s="1" t="n">
-        <f aca="false">Sheet1!E31*Sheet4!E31</f>
-        <v>2320.03265306122</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="n">
         <f aca="false">Sheet1!F31*Sheet4!F31</f>
@@ -50956,11 +50926,11 @@
       </c>
       <c r="Q31" s="1" t="n">
         <f aca="false">SUM(D31:O31)</f>
-        <v>23726.4020408163</v>
+        <v>21436.3693877551</v>
       </c>
       <c r="R31" s="1" t="n">
         <f aca="false">SUMPRODUCT(D31:O31,$D$38:$O$38)</f>
-        <v>4487.48977651552</v>
+        <v>4294.46114153207</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50975,8 +50945,7 @@
         <v>1031</v>
       </c>
       <c r="E32" s="1" t="n">
-        <f aca="false">Sheet1!E32*Sheet4!E32</f>
-        <v>2255.23469387755</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">Sheet1!F32*Sheet4!F32</f>
@@ -51020,11 +50989,11 @@
       </c>
       <c r="Q32" s="1" t="n">
         <f aca="false">SUM(D32:O32)</f>
-        <v>22074.8115433674</v>
+        <v>19850.5768494898</v>
       </c>
       <c r="R32" s="1" t="n">
         <f aca="false">SUMPRODUCT(D32:O32,$D$38:$O$38)</f>
-        <v>4206.86935631</v>
+        <v>4020.06671044426</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51039,8 +51008,7 @@
         <v>1032</v>
       </c>
       <c r="E33" s="1" t="n">
-        <f aca="false">Sheet1!E33*Sheet4!E33</f>
-        <v>2540.01428571429</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">Sheet1!F33*Sheet4!F33</f>
@@ -51084,11 +51052,11 @@
       </c>
       <c r="Q33" s="1" t="n">
         <f aca="false">SUM(D33:O33)</f>
-        <v>24748.2209183673</v>
+        <v>22240.2066326531</v>
       </c>
       <c r="R33" s="1" t="n">
         <f aca="false">SUMPRODUCT(D33:O33,$D$38:$O$38)</f>
-        <v>4584.32067299062</v>
+        <v>4372.60580141822</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51152,7 +51120,7 @@
       </c>
       <c r="R34" s="1" t="n">
         <f aca="false">SUMPRODUCT(D34:O34,$D$38:$O$38)</f>
-        <v>4740.83488794351</v>
+        <v>5675.79045106148</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51216,7 +51184,7 @@
       </c>
       <c r="R35" s="1" t="n">
         <f aca="false">SUMPRODUCT(D35:O35,$D$38:$O$38)</f>
-        <v>4392.65003895156</v>
+        <v>5280.81162603921</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51281,7 +51249,7 @@
       </c>
       <c r="R36" s="1" t="n">
         <f aca="false">SUMPRODUCT(D36:O36,$D$38:$O$38)</f>
-        <v>4776.43039945438</v>
+        <v>5657.41392970935</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51346,7 +51314,7 @@
       </c>
       <c r="R37" s="1" t="n">
         <f aca="false">SUMPRODUCT(D37:O37,$D$38:$O$38)</f>
-        <v>4017.91362314425</v>
+        <v>4936.86683866306</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51361,7 +51329,7 @@
       </c>
       <c r="E38" s="19" t="n">
         <f aca="false">CORREL(Sheet1!$C$2:$C$37,E2:E37)</f>
-        <v>0.0890738399347762</v>
+        <v>0.454186073292394</v>
       </c>
       <c r="F38" s="19" t="n">
         <f aca="false">CORREL(Sheet1!$C$2:$C$37,F2:F37)</f>
